--- a/biology/Médecine/Pannicule/Pannicule.xlsx
+++ b/biology/Médecine/Pannicule/Pannicule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pannicule est une couche adipeuse constituée de nombreuses petites cellules (lobules) située sous l'épiderme ayant une fonction isolante et de réserve énergétique (pour l'hibernation ou l'hivernation par exemple).
 Chez les baleines, le pannicule mesure plus de trente centimètres d'épaisseur.
@@ -512,7 +524,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pouvant avoir des origines diverses (de l'exposition à un grand froid à des parasites bactériens (ex : complication d'une maladie de Lyme), elles portent le nom de panniculites.
 </t>
